--- a/src/plugins/score/allTermScores接口的数组索引对应键名.xlsx
+++ b/src/plugins/score/allTermScores接口的数组索引对应键名.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwoam\Projects\scu-urp-assistant\src\plugins\gpa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frederick\Projects\scu-urp-assistant\src\plugins\score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD92500-3598-4830-A161-CCE4AF193AD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E145C272-BB22-4379-B4AF-30D499608133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9228" yWindow="5304" windowWidth="23040" windowHeight="12312" xr2:uid="{8C82A6E5-E673-430C-B32E-7701763F2C59}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{8C82A6E5-E673-430C-B32E-7701763F2C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>executiveEducationPlanNumber</t>
   </si>
@@ -135,7 +135,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>levelPoint</t>
+    <t>examTypeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unpassedReasonCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,9 +204,15 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -209,22 +223,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -240,9 +238,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94411B4D-F97B-4511-9E7E-3555E093994B}" name="表1" displayName="表1" ref="A1:C20" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94411B4D-F97B-4511-9E7E-3555E093994B}" name="表1" displayName="表1" ref="A1:C20" totalsRowShown="0" headerRowDxfId="2">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FE3CCAE8-563F-46DB-9FDD-174BB8245A51}" name="v[i]" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{FE3CCAE8-563F-46DB-9FDD-174BB8245A51}" name="v[i]" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{AABAE1EC-9AC5-4F34-95E7-45848AFF2417}" name="键名"/>
     <tableColumn id="3" xr3:uid="{BDD11C7C-8D14-4376-BD99-586F2699F7E9}" name="示例值" dataDxfId="0"/>
   </tableColumns>
@@ -550,7 +548,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -641,6 +639,9 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
@@ -672,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>-21</v>
@@ -682,6 +683,9 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
@@ -777,7 +781,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
